--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Márk\Desktop\Vla\-blank-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D3ABA9-B9AB-4E4D-A467-FECC4A6FE79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45170948-4389-4E34-8F11-3A6B8967479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="135" windowWidth="12885" windowHeight="15180" xr2:uid="{95F8B5B3-FBC2-42BC-8E12-4D0F533B8629}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{95F8B5B3-FBC2-42BC-8E12-4D0F533B8629}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Eszköz</t>
   </si>
@@ -212,9 +212,6 @@
     <t>192.168.5.2</t>
   </si>
   <si>
-    <t>G4/1-G7/1</t>
-  </si>
-  <si>
     <t>G7/0</t>
   </si>
   <si>
@@ -254,10 +251,7 @@
     <t>IPP2-FL2</t>
   </si>
   <si>
-    <t>G3/1</t>
-  </si>
-  <si>
-    <t>G2/1</t>
+    <t>G1/1-G4/1</t>
   </si>
 </sst>
 </file>
@@ -333,9 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,6 +334,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,45 +677,45 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -733,7 +727,7 @@
       <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F2" t="s">
@@ -741,7 +735,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -751,7 +745,7 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
@@ -759,7 +753,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -769,13 +763,13 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="6"/>
       <c r="F4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -785,13 +779,13 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="6"/>
       <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -801,13 +795,13 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="6"/>
       <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -815,15 +809,15 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
@@ -833,13 +827,13 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="6"/>
       <c r="F8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -849,7 +843,7 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
@@ -857,7 +851,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -867,7 +861,7 @@
       <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
@@ -875,7 +869,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
@@ -885,7 +879,7 @@
       <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
@@ -893,7 +887,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -903,16 +897,16 @@
       <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -921,7 +915,7 @@
       <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
@@ -929,14 +923,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F14" t="s">
@@ -944,22 +938,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -971,7 +965,7 @@
       <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F16" t="s">
@@ -979,14 +973,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
@@ -994,109 +988,109 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="6"/>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="6"/>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="6"/>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="6"/>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="6"/>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F25" t="s">
@@ -1104,80 +1098,80 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="6"/>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="6"/>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="6"/>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="6"/>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="6"/>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>71</v>
+      <c r="E31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F31" t="s">
         <v>30</v>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Márk\Desktop\Vla\-blank-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45170948-4389-4E34-8F11-3A6B8967479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B91277A-C491-4AD3-BC49-A00BC789FC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{95F8B5B3-FBC2-42BC-8E12-4D0F533B8629}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>Eszköz</t>
   </si>
@@ -62,24 +62,12 @@
     <t>G0</t>
   </si>
   <si>
-    <t>172.16.0.3</t>
-  </si>
-  <si>
-    <t>172.16.0.4</t>
-  </si>
-  <si>
-    <t>172.16.0.5</t>
-  </si>
-  <si>
     <t>DNS-FL1</t>
   </si>
   <si>
     <t>WEB-FILE-FL1</t>
   </si>
   <si>
-    <t>PC-SW1-FL1</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>G7/1</t>
   </si>
   <si>
-    <t>172.16.0.11</t>
-  </si>
-  <si>
     <t>WR-FL1</t>
   </si>
   <si>
@@ -110,9 +95,6 @@
     <t>B1-P1</t>
   </si>
   <si>
-    <t>172.16.0.15</t>
-  </si>
-  <si>
     <t>G6/1</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>Eth0</t>
   </si>
   <si>
-    <t>172.16.0.16</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -140,24 +119,12 @@
     <t>L2-FL2</t>
   </si>
   <si>
-    <t>L4-FL1</t>
-  </si>
-  <si>
     <t>WLAN</t>
   </si>
   <si>
     <t>WR-FL2</t>
   </si>
   <si>
-    <t>192.168.0.13</t>
-  </si>
-  <si>
-    <t>192.168.0.10</t>
-  </si>
-  <si>
-    <t>192.168.0.12</t>
-  </si>
-  <si>
     <t>Emelet</t>
   </si>
   <si>
@@ -185,15 +152,9 @@
     <t>G1/0</t>
   </si>
   <si>
-    <t>Között</t>
-  </si>
-  <si>
     <t>G0/1</t>
   </si>
   <si>
-    <t>172.16.0.2</t>
-  </si>
-  <si>
     <t>G4/0</t>
   </si>
   <si>
@@ -233,9 +194,6 @@
     <t>L1-FL2</t>
   </si>
   <si>
-    <t>172.16.0.10</t>
-  </si>
-  <si>
     <t>PC1-SW2-FL2</t>
   </si>
   <si>
@@ -252,6 +210,54 @@
   </si>
   <si>
     <t>G1/1-G4/1</t>
+  </si>
+  <si>
+    <t>Mind</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>172.16.0.2/24</t>
+  </si>
+  <si>
+    <t>172.16.0.3/24</t>
+  </si>
+  <si>
+    <t>172.16.0.4/24</t>
+  </si>
+  <si>
+    <t>172.16.0.5/24</t>
+  </si>
+  <si>
+    <t>172.16.0.10/24</t>
+  </si>
+  <si>
+    <t>172.16.0.16/24</t>
+  </si>
+  <si>
+    <t>192.168.0.13/24</t>
+  </si>
+  <si>
+    <t>192.168.0.10/24</t>
+  </si>
+  <si>
+    <t>Nincs</t>
+  </si>
+  <si>
+    <t>10.0.0.1/30</t>
+  </si>
+  <si>
+    <t>Több</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Még nincs</t>
+  </si>
+  <si>
+    <t>Közép</t>
   </si>
 </sst>
 </file>
@@ -319,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,6 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cím" xfId="1" builtinId="15"/>
@@ -677,7 +684,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +692,7 @@
     <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -705,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -719,19 +726,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,448 +753,532 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
+      <c r="G11" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
-        <v>47</v>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
-        <v>46</v>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G22" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="6"/>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G25" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="G26" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G27" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-    </row>
+        <v>23</v>
+      </c>
+      <c r="G28" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A31"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="A13:A28"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Márk\Desktop\Vla\-blank-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B91277A-C491-4AD3-BC49-A00BC789FC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCF233-C88B-41A1-8A59-52EAB82831A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{95F8B5B3-FBC2-42BC-8E12-4D0F533B8629}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>Eszköz</t>
   </si>
@@ -336,16 +336,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cím" xfId="1" builtinId="15"/>
@@ -684,7 +684,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -740,12 +740,12 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -761,12 +761,12 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -780,12 +780,12 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -799,12 +799,12 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -818,12 +818,12 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -839,12 +839,12 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -860,12 +860,12 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -881,12 +881,12 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -904,12 +904,12 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -925,12 +925,12 @@
       <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
@@ -946,12 +946,12 @@
       <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -969,12 +969,12 @@
       <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
@@ -990,12 +990,12 @@
       <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1011,12 +1011,12 @@
       <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1032,12 +1032,12 @@
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1051,12 +1051,12 @@
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
@@ -1070,12 +1070,12 @@
       <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1089,12 +1089,12 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1108,12 +1108,12 @@
       <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1123,16 +1123,18 @@
       <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1148,12 +1150,12 @@
       <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1167,12 +1169,12 @@
       <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1186,12 +1188,12 @@
       <c r="F24" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
@@ -1205,12 +1207,12 @@
       <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1224,12 +1226,12 @@
       <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
@@ -1243,12 +1245,12 @@
       <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1264,7 +1266,7 @@
       <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <v>20</v>
       </c>
     </row>
@@ -1276,9 +1278,9 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E16:E21"/>
     <mergeCell ref="A13:A28"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="E16:E20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
